--- a/Weather_for_Penman/Penman_irrigation_summary.xlsx
+++ b/Weather_for_Penman/Penman_irrigation_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -443,11 +443,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time (LST)</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>precip (mm)</t>
@@ -505,35 +500,30 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>CIWL (inch)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>CIWDP (%)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>SIWDP (%)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>CFWDP (%)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>SFWDP (%)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CRWDP (%)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>SRWDP (%)</t>
         </is>
@@ -594,9 +584,6 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -621,7 +608,7 @@
         <v>0.0387</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0387</v>
+        <v>0.0327</v>
       </c>
       <c r="I3" t="n">
         <v>0.0387</v>
@@ -636,10 +623,10 @@
         <v>0.0387</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.7578</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7578</v>
+        <v>3.175</v>
       </c>
       <c r="O3" t="n">
         <v>3.7578</v>
@@ -651,9 +638,6 @@
         <v>3.7578</v>
       </c>
       <c r="R3" t="n">
-        <v>3.7578</v>
-      </c>
-      <c r="S3" t="n">
         <v>3.7578</v>
       </c>
     </row>
@@ -680,7 +664,7 @@
         <v>0.0747</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0747</v>
+        <v>0.0567</v>
       </c>
       <c r="I4" t="n">
         <v>0.0747</v>
@@ -695,10 +679,10 @@
         <v>0.0747</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6.562</v>
       </c>
       <c r="N4" t="n">
-        <v>6.562</v>
+        <v>4.9817</v>
       </c>
       <c r="O4" t="n">
         <v>6.562</v>
@@ -710,9 +694,6 @@
         <v>6.562</v>
       </c>
       <c r="R4" t="n">
-        <v>6.562</v>
-      </c>
-      <c r="S4" t="n">
         <v>6.562</v>
       </c>
     </row>
@@ -739,7 +720,7 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0502</v>
       </c>
       <c r="I5" t="n">
         <v>0.08019999999999999</v>
@@ -754,10 +735,10 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.4219</v>
       </c>
       <c r="N5" t="n">
-        <v>6.4219</v>
+        <v>4.0191</v>
       </c>
       <c r="O5" t="n">
         <v>6.4219</v>
@@ -769,9 +750,6 @@
         <v>6.4219</v>
       </c>
       <c r="R5" t="n">
-        <v>6.4219</v>
-      </c>
-      <c r="S5" t="n">
         <v>6.4219</v>
       </c>
     </row>
@@ -798,7 +776,7 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0442</v>
       </c>
       <c r="I6" t="n">
         <v>0.08019999999999999</v>
@@ -813,10 +791,10 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2117</v>
+        <v>5.904</v>
       </c>
       <c r="N6" t="n">
-        <v>5.904</v>
+        <v>3.2532</v>
       </c>
       <c r="O6" t="n">
         <v>5.904</v>
@@ -828,9 +806,6 @@
         <v>5.904</v>
       </c>
       <c r="R6" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="S6" t="n">
         <v>5.904</v>
       </c>
     </row>
@@ -857,7 +832,7 @@
         <v>0.1006</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1006</v>
+        <v>0.0286</v>
       </c>
       <c r="I7" t="n">
         <v>0.1006</v>
@@ -872,10 +847,10 @@
         <v>0.1006</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.8524</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8524</v>
+        <v>1.9465</v>
       </c>
       <c r="O7" t="n">
         <v>6.8524</v>
@@ -887,9 +862,6 @@
         <v>6.8524</v>
       </c>
       <c r="R7" t="n">
-        <v>6.8524</v>
-      </c>
-      <c r="S7" t="n">
         <v>6.8524</v>
       </c>
     </row>
@@ -916,7 +888,7 @@
         <v>0.1308</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1308</v>
+        <v>0.1008</v>
       </c>
       <c r="I8" t="n">
         <v>0.1308</v>
@@ -931,10 +903,10 @@
         <v>0.1308</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>8.292999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>8.292999999999999</v>
+        <v>6.3908</v>
       </c>
       <c r="O8" t="n">
         <v>8.292999999999999</v>
@@ -946,9 +918,6 @@
         <v>8.292999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>8.292999999999999</v>
-      </c>
-      <c r="S8" t="n">
         <v>8.292999999999999</v>
       </c>
     </row>
@@ -975,7 +944,7 @@
         <v>0.1648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1648</v>
+        <v>0.1228</v>
       </c>
       <c r="I9" t="n">
         <v>0.1648</v>
@@ -990,10 +959,10 @@
         <v>0.1648</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>9.769399999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>9.769399999999999</v>
+        <v>7.2793</v>
       </c>
       <c r="O9" t="n">
         <v>9.769399999999999</v>
@@ -1005,9 +974,6 @@
         <v>9.769399999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>9.769399999999999</v>
-      </c>
-      <c r="S9" t="n">
         <v>9.769399999999999</v>
       </c>
     </row>
@@ -1034,7 +1000,7 @@
         <v>0.1704</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1704</v>
+        <v>0.1044</v>
       </c>
       <c r="I10" t="n">
         <v>0.1704</v>
@@ -1049,10 +1015,10 @@
         <v>0.1704</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>9.488300000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>9.488300000000001</v>
+        <v>5.8139</v>
       </c>
       <c r="O10" t="n">
         <v>9.488300000000001</v>
@@ -1064,9 +1030,6 @@
         <v>9.488300000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>9.488300000000001</v>
-      </c>
-      <c r="S10" t="n">
         <v>9.488300000000001</v>
       </c>
     </row>
@@ -1093,7 +1056,7 @@
         <v>0.2269</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2146</v>
+        <v>0.1246</v>
       </c>
       <c r="I11" t="n">
         <v>0.2269</v>
@@ -1108,24 +1071,21 @@
         <v>0.2146</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>11.9083</v>
       </c>
       <c r="N11" t="n">
+        <v>6.5396</v>
+      </c>
+      <c r="O11" t="n">
         <v>11.9083</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>11.2622</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>11.9083</v>
       </c>
-      <c r="Q11" t="n">
-        <v>11.2622</v>
-      </c>
       <c r="R11" t="n">
-        <v>11.9083</v>
-      </c>
-      <c r="S11" t="n">
         <v>11.2622</v>
       </c>
     </row>
@@ -1149,43 +1109,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2915</v>
+        <v>0.2375</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2651</v>
+        <v>0.1511</v>
       </c>
       <c r="I12" t="n">
         <v>0.2915</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2651</v>
+        <v>0.2111</v>
       </c>
       <c r="K12" t="n">
         <v>0.2915</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2651</v>
+        <v>0.2051</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>11.7869</v>
       </c>
       <c r="N12" t="n">
+        <v>7.5002</v>
+      </c>
+      <c r="O12" t="n">
         <v>14.4665</v>
       </c>
-      <c r="O12" t="n">
-        <v>13.1571</v>
-      </c>
       <c r="P12" t="n">
+        <v>10.4776</v>
+      </c>
+      <c r="Q12" t="n">
         <v>14.4665</v>
       </c>
-      <c r="Q12" t="n">
-        <v>13.1571</v>
-      </c>
       <c r="R12" t="n">
-        <v>14.4665</v>
-      </c>
-      <c r="S12" t="n">
-        <v>13.1571</v>
+        <v>10.1798</v>
       </c>
     </row>
     <row r="13">
@@ -1208,43 +1165,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3552</v>
+        <v>1.3032</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3149</v>
+        <v>0.9089</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3552</v>
+        <v>0.2982</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3149</v>
+        <v>0.1829</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3552</v>
+        <v>0.2982</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3149</v>
+        <v>0.4229</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>61.333</v>
       </c>
       <c r="N13" t="n">
-        <v>16.7162</v>
+        <v>42.7778</v>
       </c>
       <c r="O13" t="n">
-        <v>14.8217</v>
+        <v>14.0336</v>
       </c>
       <c r="P13" t="n">
-        <v>16.7162</v>
+        <v>8.609299999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.8217</v>
+        <v>14.0336</v>
       </c>
       <c r="R13" t="n">
-        <v>16.7162</v>
-      </c>
-      <c r="S13" t="n">
-        <v>14.8217</v>
+        <v>19.9046</v>
       </c>
     </row>
     <row r="14">
@@ -1267,43 +1221,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4062</v>
+        <v>1.2762</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3549</v>
+        <v>0.8739</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4062</v>
+        <v>0.2082</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3549</v>
+        <v>0.1659</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4062</v>
+        <v>0.2232</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3549</v>
+        <v>0.3849</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>57.1211</v>
       </c>
       <c r="N14" t="n">
-        <v>18.1825</v>
+        <v>39.1118</v>
       </c>
       <c r="O14" t="n">
-        <v>15.8829</v>
+        <v>9.320600000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>18.1825</v>
+        <v>7.4238</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.8829</v>
+        <v>9.991899999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>18.1825</v>
-      </c>
-      <c r="S14" t="n">
-        <v>15.8829</v>
+        <v>17.2256</v>
       </c>
     </row>
     <row r="15">
@@ -1326,43 +1277,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4062</v>
+        <v>1.2552</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3549</v>
+        <v>0.8289</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4062</v>
+        <v>0.1512</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3549</v>
+        <v>0.1329</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4062</v>
+        <v>0.1692</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3549</v>
+        <v>0.3489</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5586</v>
+        <v>53.5559</v>
       </c>
       <c r="N15" t="n">
-        <v>17.3328</v>
+        <v>35.3642</v>
       </c>
       <c r="O15" t="n">
-        <v>15.1407</v>
+        <v>6.4531</v>
       </c>
       <c r="P15" t="n">
-        <v>17.3328</v>
+        <v>5.6689</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.1407</v>
+        <v>7.2211</v>
       </c>
       <c r="R15" t="n">
-        <v>17.3328</v>
-      </c>
-      <c r="S15" t="n">
-        <v>15.1407</v>
+        <v>14.8847</v>
       </c>
     </row>
     <row r="16">
@@ -1385,43 +1333,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4572</v>
+        <v>-0.1038</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3947</v>
+        <v>0.3287</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4572</v>
+        <v>-0.2988</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3947</v>
+        <v>0.0227</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4572</v>
+        <v>-0.5628</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3947</v>
+        <v>-0.0163</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-4.2306</v>
       </c>
       <c r="N16" t="n">
-        <v>18.6362</v>
+        <v>13.3992</v>
       </c>
       <c r="O16" t="n">
-        <v>16.0894</v>
+        <v>-12.179</v>
       </c>
       <c r="P16" t="n">
-        <v>18.6362</v>
+        <v>0.9263</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.0894</v>
+        <v>-22.9398</v>
       </c>
       <c r="R16" t="n">
-        <v>18.6362</v>
-      </c>
-      <c r="S16" t="n">
-        <v>16.0894</v>
+        <v>-0.6633</v>
       </c>
     </row>
     <row r="17">
@@ -1444,43 +1389,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4572</v>
+        <v>-0.1068</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3947</v>
+        <v>0.4097</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4572</v>
+        <v>-0.2958</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3947</v>
+        <v>-0.0433</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4572</v>
+        <v>0.0042</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3947</v>
+        <v>0.2687</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6811</v>
+        <v>-4.1669</v>
       </c>
       <c r="N17" t="n">
-        <v>17.8398</v>
+        <v>15.9871</v>
       </c>
       <c r="O17" t="n">
-        <v>15.4018</v>
+        <v>-11.5414</v>
       </c>
       <c r="P17" t="n">
-        <v>17.8398</v>
+        <v>-1.6885</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.4018</v>
+        <v>0.1642</v>
       </c>
       <c r="R17" t="n">
-        <v>17.8398</v>
-      </c>
-      <c r="S17" t="n">
-        <v>15.4018</v>
+        <v>10.4854</v>
       </c>
     </row>
     <row r="18">
@@ -1503,43 +1445,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4572</v>
+        <v>-0.2328</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3947</v>
+        <v>0.3107</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4572</v>
+        <v>-0.3498</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3947</v>
+        <v>-0.1963</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4572</v>
+        <v>-0.0138</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3947</v>
+        <v>0.1247</v>
       </c>
       <c r="M18" t="n">
-        <v>0.039</v>
+        <v>-8.711</v>
       </c>
       <c r="N18" t="n">
-        <v>17.1087</v>
+        <v>11.6273</v>
       </c>
       <c r="O18" t="n">
-        <v>14.7706</v>
+        <v>-13.0891</v>
       </c>
       <c r="P18" t="n">
-        <v>17.1087</v>
+        <v>-7.3445</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.7706</v>
+        <v>-0.516</v>
       </c>
       <c r="R18" t="n">
-        <v>17.1087</v>
-      </c>
-      <c r="S18" t="n">
-        <v>14.7706</v>
+        <v>4.6672</v>
       </c>
     </row>
     <row r="19">
@@ -1562,43 +1501,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4999</v>
+        <v>-0.2021</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4116</v>
+        <v>0.3126</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4999</v>
+        <v>-0.3131</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4116</v>
+        <v>-0.2754</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4999</v>
+        <v>0.0289</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4116</v>
+        <v>0.2466</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-7.2695</v>
       </c>
       <c r="N19" t="n">
-        <v>17.9823</v>
+        <v>11.2434</v>
       </c>
       <c r="O19" t="n">
-        <v>14.8046</v>
+        <v>-11.2623</v>
       </c>
       <c r="P19" t="n">
-        <v>17.9823</v>
+        <v>-9.9076</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.8046</v>
+        <v>1.0399</v>
       </c>
       <c r="R19" t="n">
-        <v>17.9823</v>
-      </c>
-      <c r="S19" t="n">
-        <v>14.8046</v>
+        <v>8.869300000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1621,43 +1557,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5663</v>
+        <v>-0.1117</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4506</v>
+        <v>0.4056</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5663</v>
+        <v>-0.2137</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4506</v>
+        <v>-0.1794</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5663</v>
+        <v>0.0953</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4506</v>
+        <v>0.3036</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-3.8801</v>
       </c>
       <c r="N20" t="n">
-        <v>19.6616</v>
+        <v>14.0816</v>
       </c>
       <c r="O20" t="n">
-        <v>15.6441</v>
+        <v>-7.4218</v>
       </c>
       <c r="P20" t="n">
-        <v>19.6616</v>
+        <v>-6.2309</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.6441</v>
+        <v>3.3074</v>
       </c>
       <c r="R20" t="n">
-        <v>19.6616</v>
-      </c>
-      <c r="S20" t="n">
-        <v>15.6441</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="21">
@@ -1680,43 +1613,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6381</v>
+        <v>-0.0279</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4928</v>
+        <v>0.5168</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6381</v>
+        <v>0.0801</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4928</v>
+        <v>-0.0352</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6381</v>
+        <v>0.2151</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4928</v>
+        <v>0.3488</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-0.9364</v>
       </c>
       <c r="N21" t="n">
-        <v>21.4126</v>
+        <v>17.3411</v>
       </c>
       <c r="O21" t="n">
-        <v>16.5358</v>
+        <v>2.6878</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4126</v>
+        <v>-1.1824</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.5358</v>
+        <v>7.218</v>
       </c>
       <c r="R21" t="n">
-        <v>21.4126</v>
-      </c>
-      <c r="S21" t="n">
-        <v>16.5358</v>
+        <v>11.7035</v>
       </c>
     </row>
     <row r="22">
@@ -1739,43 +1669,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7212</v>
+        <v>0.0432</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5416</v>
+        <v>0.5506</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7212</v>
+        <v>0.1812</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5416</v>
+        <v>0.0106</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7212</v>
+        <v>0.3012</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5416</v>
+        <v>0.3976</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.4013</v>
       </c>
       <c r="N22" t="n">
-        <v>23.4142</v>
+        <v>17.8757</v>
       </c>
       <c r="O22" t="n">
-        <v>17.5835</v>
+        <v>5.8818</v>
       </c>
       <c r="P22" t="n">
-        <v>23.4142</v>
+        <v>0.3433</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.5835</v>
+        <v>9.777900000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>23.4142</v>
-      </c>
-      <c r="S22" t="n">
-        <v>17.5835</v>
+        <v>12.9082</v>
       </c>
     </row>
     <row r="23">
@@ -1798,43 +1725,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7212</v>
+        <v>-0.0198</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5416</v>
+        <v>0.5206</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7212</v>
+        <v>0.1752</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5416</v>
+        <v>-0.0074</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7212</v>
+        <v>0.2742</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5416</v>
+        <v>0.3856</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1916</v>
+        <v>-0.6239</v>
       </c>
       <c r="N23" t="n">
-        <v>22.6779</v>
+        <v>16.3702</v>
       </c>
       <c r="O23" t="n">
-        <v>17.0306</v>
+        <v>5.5081</v>
       </c>
       <c r="P23" t="n">
-        <v>22.6779</v>
+        <v>-0.2336</v>
       </c>
       <c r="Q23" t="n">
-        <v>17.0306</v>
+        <v>8.6213</v>
       </c>
       <c r="R23" t="n">
-        <v>22.6779</v>
-      </c>
-      <c r="S23" t="n">
-        <v>17.0306</v>
+        <v>12.1249</v>
       </c>
     </row>
     <row r="24">
@@ -1857,43 +1781,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.759</v>
+        <v>0.003</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5597</v>
+        <v>0.4997</v>
       </c>
       <c r="I24" t="n">
-        <v>0.759</v>
+        <v>0.207</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5597</v>
+        <v>-0.0073</v>
       </c>
       <c r="K24" t="n">
-        <v>0.759</v>
+        <v>0.306</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5597</v>
+        <v>0.1637</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>23.1401</v>
+        <v>15.2342</v>
       </c>
       <c r="O24" t="n">
-        <v>17.0634</v>
+        <v>6.3108</v>
       </c>
       <c r="P24" t="n">
-        <v>23.1401</v>
+        <v>-0.2231</v>
       </c>
       <c r="Q24" t="n">
-        <v>17.0634</v>
+        <v>9.3291</v>
       </c>
       <c r="R24" t="n">
-        <v>23.1401</v>
-      </c>
-      <c r="S24" t="n">
-        <v>17.0634</v>
+        <v>4.9903</v>
       </c>
     </row>
     <row r="25">
@@ -1916,43 +1837,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729</v>
+        <v>0.1319</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6249</v>
+        <v>0.5649</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8729</v>
+        <v>0.3059</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6249</v>
+        <v>0.0429</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8729</v>
+        <v>0.4229</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6249</v>
+        <v>0.4659</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>3.9013</v>
       </c>
       <c r="N25" t="n">
-        <v>25.8244</v>
+        <v>16.7143</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4894</v>
+        <v>9.049300000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>25.8244</v>
+        <v>1.2705</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.4894</v>
+        <v>12.5108</v>
       </c>
       <c r="R25" t="n">
-        <v>25.8244</v>
-      </c>
-      <c r="S25" t="n">
-        <v>18.4894</v>
+        <v>13.7853</v>
       </c>
     </row>
     <row r="26">
@@ -1975,43 +1893,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.982</v>
+        <v>0.241</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6875</v>
+        <v>0.6005</v>
       </c>
       <c r="I26" t="n">
-        <v>0.982</v>
+        <v>0.415</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6875</v>
+        <v>0.0905</v>
       </c>
       <c r="K26" t="n">
-        <v>0.982</v>
+        <v>0.532</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6875</v>
+        <v>0.5195</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>6.9266</v>
       </c>
       <c r="N26" t="n">
-        <v>28.2198</v>
+        <v>17.2562</v>
       </c>
       <c r="O26" t="n">
-        <v>19.7562</v>
+        <v>11.9266</v>
       </c>
       <c r="P26" t="n">
-        <v>28.2198</v>
+        <v>2.6011</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.7562</v>
+        <v>15.2887</v>
       </c>
       <c r="R26" t="n">
-        <v>28.2198</v>
-      </c>
-      <c r="S26" t="n">
-        <v>19.7562</v>
+        <v>14.9287</v>
       </c>
     </row>
     <row r="27">
@@ -2034,43 +1949,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.982</v>
+        <v>0.241</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6875</v>
+        <v>0.5645</v>
       </c>
       <c r="I27" t="n">
-        <v>0.982</v>
+        <v>0.415</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6875</v>
+        <v>0.0635</v>
       </c>
       <c r="K27" t="n">
-        <v>0.982</v>
+        <v>0.532</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6875</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3475</v>
+        <v>6.7332</v>
       </c>
       <c r="N27" t="n">
-        <v>27.4315</v>
+        <v>15.7686</v>
       </c>
       <c r="O27" t="n">
-        <v>19.2044</v>
+        <v>11.5935</v>
       </c>
       <c r="P27" t="n">
-        <v>27.4315</v>
+        <v>1.7742</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.2044</v>
+        <v>14.8617</v>
       </c>
       <c r="R27" t="n">
-        <v>27.4315</v>
-      </c>
-      <c r="S27" t="n">
-        <v>19.2044</v>
+        <v>14.0089</v>
       </c>
     </row>
     <row r="28">
@@ -2093,43 +2005,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.1282</v>
+        <v>0.2372</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7713</v>
+        <v>0.6123</v>
       </c>
       <c r="I28" t="n">
-        <v>1.1282</v>
+        <v>0.2882</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7713</v>
+        <v>0.1083</v>
       </c>
       <c r="K28" t="n">
-        <v>1.1282</v>
+        <v>0.5402</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7713</v>
+        <v>0.5493</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>6.4461</v>
       </c>
       <c r="N28" t="n">
-        <v>30.6581</v>
+        <v>16.6383</v>
       </c>
       <c r="O28" t="n">
-        <v>20.959</v>
+        <v>7.832</v>
       </c>
       <c r="P28" t="n">
-        <v>30.6581</v>
+        <v>2.9427</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.959</v>
+        <v>14.6798</v>
       </c>
       <c r="R28" t="n">
-        <v>30.6581</v>
-      </c>
-      <c r="S28" t="n">
-        <v>20.959</v>
+        <v>14.9264</v>
       </c>
     </row>
     <row r="29">
@@ -2152,43 +2061,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.2736</v>
+        <v>0.3946</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8546</v>
+        <v>0.6866</v>
       </c>
       <c r="I29" t="n">
-        <v>1.2736</v>
+        <v>0.6046</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8546</v>
+        <v>0.1976</v>
       </c>
       <c r="K29" t="n">
-        <v>1.2736</v>
+        <v>0.6916</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8546</v>
+        <v>0.6506</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>10.4381</v>
       </c>
       <c r="N29" t="n">
-        <v>33.692</v>
+        <v>18.1638</v>
       </c>
       <c r="O29" t="n">
-        <v>22.6082</v>
+        <v>15.9936</v>
       </c>
       <c r="P29" t="n">
-        <v>33.692</v>
+        <v>5.2272</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.6082</v>
+        <v>18.2952</v>
       </c>
       <c r="R29" t="n">
-        <v>33.692</v>
-      </c>
-      <c r="S29" t="n">
-        <v>22.6082</v>
+        <v>17.2114</v>
       </c>
     </row>
     <row r="30">
@@ -2211,43 +2117,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.3604</v>
+        <v>0.5204</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9044</v>
+        <v>0.7244</v>
       </c>
       <c r="I30" t="n">
-        <v>1.3604</v>
+        <v>0.7034</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9044</v>
+        <v>0.2444</v>
       </c>
       <c r="K30" t="n">
-        <v>1.3604</v>
+        <v>0.7994</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9044</v>
+        <v>0.7004</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>13.4123</v>
       </c>
       <c r="N30" t="n">
-        <v>35.0617</v>
+        <v>18.669</v>
       </c>
       <c r="O30" t="n">
-        <v>23.3082</v>
+        <v>18.1288</v>
       </c>
       <c r="P30" t="n">
-        <v>35.0617</v>
+        <v>6.2979</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.3082</v>
+        <v>20.603</v>
       </c>
       <c r="R30" t="n">
-        <v>35.0617</v>
-      </c>
-      <c r="S30" t="n">
-        <v>23.3082</v>
+        <v>18.0505</v>
       </c>
     </row>
     <row r="31">
@@ -2270,43 +2173,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.4884</v>
+        <v>0.6424</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9777</v>
+        <v>0.7766999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>1.4884</v>
+        <v>0.8344</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9777</v>
+        <v>0.3087</v>
       </c>
       <c r="K31" t="n">
-        <v>1.4884</v>
+        <v>0.9784</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9777</v>
+        <v>0.7737000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>16.1406</v>
       </c>
       <c r="N31" t="n">
-        <v>37.3969</v>
+        <v>19.5155</v>
       </c>
       <c r="O31" t="n">
-        <v>24.5658</v>
+        <v>20.9647</v>
       </c>
       <c r="P31" t="n">
-        <v>37.3969</v>
+        <v>7.7567</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.5658</v>
+        <v>24.5828</v>
       </c>
       <c r="R31" t="n">
-        <v>37.3969</v>
-      </c>
-      <c r="S31" t="n">
-        <v>24.5658</v>
+        <v>19.4402</v>
       </c>
     </row>
     <row r="32">
@@ -2329,43 +2229,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.6114</v>
+        <v>0.7534</v>
       </c>
       <c r="H32" t="n">
-        <v>1.0482</v>
+        <v>0.8322000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>1.6114</v>
+        <v>0.9634</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0482</v>
+        <v>0.3702</v>
       </c>
       <c r="K32" t="n">
-        <v>1.6114</v>
+        <v>1.1104</v>
       </c>
       <c r="L32" t="n">
-        <v>1.0482</v>
+        <v>0.8442</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>18.4786</v>
       </c>
       <c r="N32" t="n">
-        <v>39.5228</v>
+        <v>20.4105</v>
       </c>
       <c r="O32" t="n">
-        <v>25.7084</v>
+        <v>23.6293</v>
       </c>
       <c r="P32" t="n">
-        <v>39.5228</v>
+        <v>9.0791</v>
       </c>
       <c r="Q32" t="n">
-        <v>25.7084</v>
+        <v>27.2348</v>
       </c>
       <c r="R32" t="n">
-        <v>39.5228</v>
-      </c>
-      <c r="S32" t="n">
-        <v>25.7084</v>
+        <v>20.7048</v>
       </c>
     </row>
     <row r="33">
@@ -2388,43 +2285,40 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.7578</v>
+        <v>0.8938</v>
       </c>
       <c r="H33" t="n">
-        <v>1.132</v>
+        <v>0.904</v>
       </c>
       <c r="I33" t="n">
-        <v>1.7578</v>
+        <v>1.1098</v>
       </c>
       <c r="J33" t="n">
-        <v>1.132</v>
+        <v>0.448</v>
       </c>
       <c r="K33" t="n">
-        <v>1.7578</v>
+        <v>1.2538</v>
       </c>
       <c r="L33" t="n">
-        <v>1.132</v>
+        <v>0.928</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>21.4207</v>
       </c>
       <c r="N33" t="n">
-        <v>42.1283</v>
+        <v>21.666</v>
       </c>
       <c r="O33" t="n">
-        <v>27.1305</v>
+        <v>26.5976</v>
       </c>
       <c r="P33" t="n">
-        <v>42.1283</v>
+        <v>10.737</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.1305</v>
+        <v>30.0489</v>
       </c>
       <c r="R33" t="n">
-        <v>42.1283</v>
-      </c>
-      <c r="S33" t="n">
-        <v>27.1305</v>
+        <v>22.2412</v>
       </c>
     </row>
     <row r="34">
@@ -2447,43 +2341,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.9547</v>
+        <v>1.0967</v>
       </c>
       <c r="H34" t="n">
-        <v>1.2448</v>
+        <v>1.0108</v>
       </c>
       <c r="I34" t="n">
-        <v>1.9547</v>
+        <v>1.3247</v>
       </c>
       <c r="J34" t="n">
-        <v>1.2448</v>
+        <v>0.5578</v>
       </c>
       <c r="K34" t="n">
-        <v>1.9547</v>
+        <v>1.4567</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2448</v>
+        <v>1.0438</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>25.6975</v>
       </c>
       <c r="N34" t="n">
-        <v>45.8024</v>
+        <v>23.6846</v>
       </c>
       <c r="O34" t="n">
-        <v>29.1677</v>
+        <v>31.0401</v>
       </c>
       <c r="P34" t="n">
-        <v>45.8024</v>
+        <v>13.0698</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1677</v>
+        <v>34.1332</v>
       </c>
       <c r="R34" t="n">
-        <v>45.8024</v>
-      </c>
-      <c r="S34" t="n">
-        <v>29.1677</v>
+        <v>24.4579</v>
       </c>
     </row>
     <row r="35">
@@ -2506,43 +2397,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.9547</v>
+        <v>1.0937</v>
       </c>
       <c r="H35" t="n">
-        <v>1.2448</v>
+        <v>0.9868</v>
       </c>
       <c r="I35" t="n">
-        <v>1.9547</v>
+        <v>1.3457</v>
       </c>
       <c r="J35" t="n">
-        <v>1.2448</v>
+        <v>0.5368000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>1.9547</v>
+        <v>1.4477</v>
       </c>
       <c r="L35" t="n">
-        <v>1.2448</v>
+        <v>1.0348</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3601</v>
+        <v>25.0678</v>
       </c>
       <c r="N35" t="n">
-        <v>44.8026</v>
+        <v>22.6175</v>
       </c>
       <c r="O35" t="n">
-        <v>28.531</v>
+        <v>30.8439</v>
       </c>
       <c r="P35" t="n">
-        <v>44.8026</v>
+        <v>12.3031</v>
       </c>
       <c r="Q35" t="n">
-        <v>28.531</v>
+        <v>33.1818</v>
       </c>
       <c r="R35" t="n">
-        <v>44.8026</v>
-      </c>
-      <c r="S35" t="n">
-        <v>28.531</v>
+        <v>23.7177</v>
       </c>
     </row>
     <row r="36">
@@ -2565,43 +2453,40 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.9547</v>
+        <v>1.0097</v>
       </c>
       <c r="H36" t="n">
-        <v>1.2448</v>
+        <v>0.9388</v>
       </c>
       <c r="I36" t="n">
-        <v>1.9547</v>
+        <v>1.0757</v>
       </c>
       <c r="J36" t="n">
-        <v>1.2448</v>
+        <v>0.4978</v>
       </c>
       <c r="K36" t="n">
-        <v>1.9547</v>
+        <v>0.8927</v>
       </c>
       <c r="L36" t="n">
-        <v>1.2448</v>
+        <v>0.7558</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0026</v>
+        <v>22.6481</v>
       </c>
       <c r="N36" t="n">
-        <v>43.8455</v>
+        <v>21.0576</v>
       </c>
       <c r="O36" t="n">
-        <v>27.9215</v>
+        <v>24.1285</v>
       </c>
       <c r="P36" t="n">
-        <v>43.8455</v>
+        <v>11.1655</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.9215</v>
+        <v>20.0236</v>
       </c>
       <c r="R36" t="n">
-        <v>43.8455</v>
-      </c>
-      <c r="S36" t="n">
-        <v>27.9215</v>
+        <v>16.9527</v>
       </c>
     </row>
     <row r="37">
@@ -2624,43 +2509,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.1292</v>
+        <v>1.2292</v>
       </c>
       <c r="H37" t="n">
-        <v>1.3447</v>
+        <v>0.9907</v>
       </c>
       <c r="I37" t="n">
-        <v>2.1292</v>
+        <v>1.4362</v>
       </c>
       <c r="J37" t="n">
-        <v>1.3447</v>
+        <v>0.5557</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1292</v>
+        <v>1.5322</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3447</v>
+        <v>1.0867</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>26.9947</v>
       </c>
       <c r="N37" t="n">
-        <v>46.7605</v>
+        <v>21.7577</v>
       </c>
       <c r="O37" t="n">
-        <v>29.5323</v>
+        <v>31.5409</v>
       </c>
       <c r="P37" t="n">
-        <v>46.7605</v>
+        <v>12.2043</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.5323</v>
+        <v>33.6492</v>
       </c>
       <c r="R37" t="n">
-        <v>46.7605</v>
-      </c>
-      <c r="S37" t="n">
-        <v>29.5323</v>
+        <v>23.8661</v>
       </c>
     </row>
     <row r="38">
@@ -2683,43 +2565,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.3455</v>
+        <v>1.4665</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4686</v>
+        <v>1.1386</v>
       </c>
       <c r="I38" t="n">
-        <v>2.3455</v>
+        <v>1.7395</v>
       </c>
       <c r="J38" t="n">
-        <v>1.4686</v>
+        <v>0.7006</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3455</v>
+        <v>1.7845</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4686</v>
+        <v>1.2016</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>31.5465</v>
       </c>
       <c r="N38" t="n">
-        <v>50.4556</v>
+        <v>24.4932</v>
       </c>
       <c r="O38" t="n">
-        <v>31.5922</v>
+        <v>37.4193</v>
       </c>
       <c r="P38" t="n">
-        <v>50.4556</v>
+        <v>15.071</v>
       </c>
       <c r="Q38" t="n">
-        <v>31.5922</v>
+        <v>38.3873</v>
       </c>
       <c r="R38" t="n">
-        <v>50.4556</v>
-      </c>
-      <c r="S38" t="n">
-        <v>31.5922</v>
+        <v>25.8485</v>
       </c>
     </row>
     <row r="39">
@@ -2742,43 +2621,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.5886</v>
+        <v>1.7576</v>
       </c>
       <c r="H39" t="n">
-        <v>1.6164</v>
+        <v>1.2744</v>
       </c>
       <c r="I39" t="n">
-        <v>2.5886</v>
+        <v>2.0936</v>
       </c>
       <c r="J39" t="n">
-        <v>1.6164</v>
+        <v>0.8334</v>
       </c>
       <c r="K39" t="n">
-        <v>2.5886</v>
+        <v>2.0396</v>
       </c>
       <c r="L39" t="n">
-        <v>1.6164</v>
+        <v>1.3554</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>37.0497</v>
       </c>
       <c r="N39" t="n">
-        <v>54.5672</v>
+        <v>26.8637</v>
       </c>
       <c r="O39" t="n">
-        <v>34.0731</v>
+        <v>44.1326</v>
       </c>
       <c r="P39" t="n">
-        <v>54.5672</v>
+        <v>17.5674</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.0731</v>
+        <v>42.9943</v>
       </c>
       <c r="R39" t="n">
-        <v>54.5672</v>
-      </c>
-      <c r="S39" t="n">
-        <v>34.0731</v>
+        <v>28.5712</v>
       </c>
     </row>
     <row r="40">
@@ -2801,43 +2677,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.7593</v>
+        <v>1.9943</v>
       </c>
       <c r="H40" t="n">
-        <v>1.7162</v>
+        <v>1.3562</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7593</v>
+        <v>2.3873</v>
       </c>
       <c r="J40" t="n">
-        <v>1.7162</v>
+        <v>0.9062</v>
       </c>
       <c r="K40" t="n">
-        <v>2.7593</v>
+        <v>2.2133</v>
       </c>
       <c r="L40" t="n">
-        <v>1.7162</v>
+        <v>1.4432</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>41.2126</v>
       </c>
       <c r="N40" t="n">
-        <v>57.0215</v>
+        <v>28.0268</v>
       </c>
       <c r="O40" t="n">
-        <v>35.4663</v>
+        <v>49.334</v>
       </c>
       <c r="P40" t="n">
-        <v>57.0215</v>
+        <v>18.7275</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.4663</v>
+        <v>45.7383</v>
       </c>
       <c r="R40" t="n">
-        <v>57.0215</v>
-      </c>
-      <c r="S40" t="n">
-        <v>35.4663</v>
+        <v>29.8247</v>
       </c>
     </row>
     <row r="41">
@@ -2860,43 +2733,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.9501</v>
+        <v>2.2511</v>
       </c>
       <c r="H41" t="n">
-        <v>1.8322</v>
+        <v>1.4572</v>
       </c>
       <c r="I41" t="n">
-        <v>2.9501</v>
+        <v>2.6381</v>
       </c>
       <c r="J41" t="n">
-        <v>1.8322</v>
+        <v>1.0012</v>
       </c>
       <c r="K41" t="n">
-        <v>2.9501</v>
+        <v>2.3951</v>
       </c>
       <c r="L41" t="n">
-        <v>1.8322</v>
+        <v>1.5652</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>45.6224</v>
       </c>
       <c r="N41" t="n">
-        <v>59.7885</v>
+        <v>29.533</v>
       </c>
       <c r="O41" t="n">
-        <v>37.1329</v>
+        <v>53.4654</v>
       </c>
       <c r="P41" t="n">
-        <v>59.7885</v>
+        <v>20.2915</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.1329</v>
+        <v>48.5407</v>
       </c>
       <c r="R41" t="n">
-        <v>59.7885</v>
-      </c>
-      <c r="S41" t="n">
-        <v>37.1329</v>
+        <v>31.7217</v>
       </c>
     </row>
     <row r="42">
@@ -2919,43 +2789,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.1756</v>
+        <v>2.6116</v>
       </c>
       <c r="H42" t="n">
-        <v>1.9693</v>
+        <v>1.6063</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1756</v>
+        <v>2.9806</v>
       </c>
       <c r="J42" t="n">
-        <v>1.9693</v>
+        <v>1.1503</v>
       </c>
       <c r="K42" t="n">
-        <v>3.1756</v>
+        <v>2.6686</v>
       </c>
       <c r="L42" t="n">
-        <v>1.9693</v>
+        <v>1.7143</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.9262</v>
       </c>
       <c r="N42" t="n">
-        <v>63.14</v>
+        <v>31.9379</v>
       </c>
       <c r="O42" t="n">
-        <v>39.1553</v>
+        <v>59.2629</v>
       </c>
       <c r="P42" t="n">
-        <v>63.14</v>
+        <v>22.8714</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.1553</v>
+        <v>53.0595</v>
       </c>
       <c r="R42" t="n">
-        <v>63.14</v>
-      </c>
-      <c r="S42" t="n">
-        <v>39.1553</v>
+        <v>34.0852</v>
       </c>
     </row>
     <row r="43">
@@ -2978,43 +2845,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.3982</v>
+        <v>2.9902</v>
       </c>
       <c r="H43" t="n">
-        <v>2.1046</v>
+        <v>1.7686</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3982</v>
+        <v>3.3292</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1046</v>
+        <v>1.2766</v>
       </c>
       <c r="K43" t="n">
-        <v>3.3982</v>
+        <v>2.9782</v>
       </c>
       <c r="L43" t="n">
-        <v>2.1046</v>
+        <v>1.8556</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>58.3485</v>
       </c>
       <c r="N43" t="n">
-        <v>66.3099</v>
+        <v>34.5115</v>
       </c>
       <c r="O43" t="n">
-        <v>41.0679</v>
+        <v>64.9635</v>
       </c>
       <c r="P43" t="n">
-        <v>66.3099</v>
+        <v>24.911</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.0679</v>
+        <v>58.1144</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3099</v>
-      </c>
-      <c r="S43" t="n">
-        <v>41.0679</v>
+        <v>36.2091</v>
       </c>
     </row>
     <row r="44">
@@ -3037,43 +2901,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.6228</v>
+        <v>3.3528</v>
       </c>
       <c r="H44" t="n">
-        <v>2.2412</v>
+        <v>1.9502</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6228</v>
+        <v>3.6498</v>
       </c>
       <c r="J44" t="n">
-        <v>2.2412</v>
+        <v>1.4282</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6228</v>
+        <v>3.2928</v>
       </c>
       <c r="L44" t="n">
-        <v>2.2412</v>
+        <v>1.9982</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>64.23050000000001</v>
       </c>
       <c r="N44" t="n">
-        <v>69.4029</v>
+        <v>37.3595</v>
       </c>
       <c r="O44" t="n">
-        <v>42.9343</v>
+        <v>69.92010000000001</v>
       </c>
       <c r="P44" t="n">
-        <v>69.4029</v>
+        <v>27.3595</v>
       </c>
       <c r="Q44" t="n">
-        <v>42.9343</v>
+        <v>63.081</v>
       </c>
       <c r="R44" t="n">
-        <v>69.4029</v>
-      </c>
-      <c r="S44" t="n">
-        <v>42.9343</v>
+        <v>38.2791</v>
       </c>
     </row>
     <row r="45">
@@ -3096,43 +2957,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3.6228</v>
+        <v>3.4578</v>
       </c>
       <c r="H45" t="n">
-        <v>2.2412</v>
+        <v>2.0072</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6228</v>
+        <v>3.7098</v>
       </c>
       <c r="J45" t="n">
-        <v>2.2412</v>
+        <v>1.4552</v>
       </c>
       <c r="K45" t="n">
-        <v>3.6228</v>
+        <v>3.3618</v>
       </c>
       <c r="L45" t="n">
-        <v>2.2412</v>
+        <v>2.0072</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1246</v>
+        <v>66.242</v>
       </c>
       <c r="N45" t="n">
-        <v>69.4029</v>
+        <v>38.4515</v>
       </c>
       <c r="O45" t="n">
-        <v>42.9343</v>
+        <v>71.06959999999999</v>
       </c>
       <c r="P45" t="n">
-        <v>69.4029</v>
+        <v>27.8768</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.9343</v>
+        <v>64.4029</v>
       </c>
       <c r="R45" t="n">
-        <v>69.4029</v>
-      </c>
-      <c r="S45" t="n">
-        <v>42.9343</v>
+        <v>38.4515</v>
       </c>
     </row>
     <row r="46">
@@ -3155,43 +3013,40 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.8239</v>
+        <v>3.6169</v>
       </c>
       <c r="H46" t="n">
-        <v>2.395</v>
+        <v>2.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.8239</v>
+        <v>3.8689</v>
       </c>
       <c r="J46" t="n">
-        <v>2.395</v>
+        <v>1.567</v>
       </c>
       <c r="K46" t="n">
-        <v>3.8239</v>
+        <v>3.4669</v>
       </c>
       <c r="L46" t="n">
-        <v>2.395</v>
+        <v>2.182</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>69.28870000000001</v>
       </c>
       <c r="N46" t="n">
-        <v>73.2542</v>
+        <v>42.1452</v>
       </c>
       <c r="O46" t="n">
-        <v>45.8808</v>
+        <v>74.1163</v>
       </c>
       <c r="P46" t="n">
-        <v>73.2542</v>
+        <v>30.0187</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.8808</v>
+        <v>66.4152</v>
       </c>
       <c r="R46" t="n">
-        <v>73.2542</v>
-      </c>
-      <c r="S46" t="n">
-        <v>45.8808</v>
+        <v>41.8003</v>
       </c>
     </row>
     <row r="47">
@@ -3214,43 +3069,40 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>3.8575</v>
+        <v>3.7225</v>
       </c>
       <c r="H47" t="n">
-        <v>2.4066</v>
+        <v>2.2926</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8575</v>
+        <v>3.9655</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4066</v>
+        <v>1.6176</v>
       </c>
       <c r="K47" t="n">
-        <v>3.8575</v>
+        <v>3.6415</v>
       </c>
       <c r="L47" t="n">
-        <v>2.4066</v>
+        <v>2.2356</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>71.3121</v>
       </c>
       <c r="N47" t="n">
-        <v>73.89830000000001</v>
+        <v>43.9196</v>
       </c>
       <c r="O47" t="n">
-        <v>46.1035</v>
+        <v>75.96729999999999</v>
       </c>
       <c r="P47" t="n">
-        <v>73.89830000000001</v>
+        <v>30.9886</v>
       </c>
       <c r="Q47" t="n">
-        <v>46.1035</v>
+        <v>69.7604</v>
       </c>
       <c r="R47" t="n">
-        <v>73.89830000000001</v>
-      </c>
-      <c r="S47" t="n">
-        <v>46.1035</v>
+        <v>42.8277</v>
       </c>
     </row>
   </sheetData>
